--- a/components.xlsx
+++ b/components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masonyoungblood/Documents/Work/Summer_2021/Cattle_Brands/CattleBrandABM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BE8238-6524-2149-9EEC-BC20E10FADF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269527EE-F4D9-8D49-B476-EB1C3DBF00B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{71FFC8D9-E866-B446-892B-7A4777213234}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="204">
   <si>
     <t>component</t>
   </si>
@@ -4227,7 +4227,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection sqref="A1:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4653,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47AD0B0-DAA4-A747-A207-DD22C1EB267E}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5182,11 +5182,11 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>170</v>
@@ -5572,11 +5572,11 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="F24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>170</v>
@@ -6317,7 +6317,7 @@
         <v>134</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>170</v>
@@ -6434,7 +6434,7 @@
         <v>134</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>170</v>
